--- a/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_21.xlsx
+++ b/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_21.xlsx
@@ -508,148 +508,148 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_21_9</t>
+          <t>model_1_21_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999034072156425</v>
+        <v>0.9301311667236395</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8284539196899462</v>
+        <v>0.7556217055903944</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8189043902628731</v>
+        <v>0.6963325419211107</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9997912358221649</v>
+        <v>0.9661638727729251</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0004020700436094682</v>
+        <v>0.2908308837894044</v>
       </c>
       <c r="G2" t="n">
-        <v>1.147129428930398</v>
+        <v>1.63415877997561</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6477684955029277</v>
+        <v>1.086200889897295</v>
       </c>
       <c r="I2" t="n">
-        <v>0.000811693406442911</v>
+        <v>0.1660607320386602</v>
       </c>
       <c r="J2" t="n">
-        <v>0.05571695200567908</v>
+        <v>1.440689522792063</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02005168430854297</v>
+        <v>0.5392873851569351</v>
       </c>
       <c r="L2" t="n">
-        <v>1.006181938198878</v>
+        <v>0.9048594610704879</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02036747829207197</v>
+        <v>0.54778062238355</v>
       </c>
       <c r="N2" t="n">
-        <v>145.6377684933768</v>
+        <v>36.4700266722195</v>
       </c>
       <c r="O2" t="n">
-        <v>286.9729410365932</v>
+        <v>73.43461026044533</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_21_7</t>
+          <t>model_1_21_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998889061386036</v>
+        <v>0.9304267229989035</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8283717232458777</v>
+        <v>0.7554282822540022</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8180747885719795</v>
+        <v>0.6968018551054687</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9997607644496391</v>
+        <v>0.965638936475109</v>
       </c>
       <c r="F3" t="n">
-        <v>0.000462431163916544</v>
+        <v>0.2896006229032016</v>
       </c>
       <c r="G3" t="n">
-        <v>1.147679076930364</v>
+        <v>1.635452202716698</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6507359326481845</v>
+        <v>1.084522183849189</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0009301687714261316</v>
+        <v>0.1686370110940029</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06067732107030308</v>
+        <v>1.435149735214891</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02150421270162068</v>
+        <v>0.5381455406330165</v>
       </c>
       <c r="L3" t="n">
-        <v>1.00711000712937</v>
+        <v>0.905261920679358</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02184288255534496</v>
+        <v>0.5466207949498054</v>
       </c>
       <c r="N3" t="n">
-        <v>145.3580256937277</v>
+        <v>36.47850493512809</v>
       </c>
       <c r="O3" t="n">
-        <v>286.6931982369441</v>
+        <v>73.44308852335391</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_21_8</t>
+          <t>model_1_21_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998902020120171</v>
+        <v>0.9313158860552139</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8283538796499595</v>
+        <v>0.7547726590494805</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8181094916096519</v>
+        <v>0.6984460048581587</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9997610213420303</v>
+        <v>0.9635752129280011</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0004570370562373466</v>
+        <v>0.2858994579434722</v>
       </c>
       <c r="G4" t="n">
-        <v>1.147798397138431</v>
+        <v>1.639836358104202</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6506118018946279</v>
+        <v>1.078641155517097</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0009291699513110335</v>
+        <v>0.1787653405171153</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06033170817708005</v>
+        <v>1.415151283995939</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02137842501769826</v>
+        <v>0.5346956685288111</v>
       </c>
       <c r="L4" t="n">
-        <v>1.007027071230908</v>
+        <v>0.906472695904972</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02171511384114231</v>
+        <v>0.5431165908085657</v>
       </c>
       <c r="N4" t="n">
-        <v>145.3814921689977</v>
+        <v>36.50423015124228</v>
       </c>
       <c r="O4" t="n">
-        <v>286.716664712214</v>
+        <v>73.4688137394681</v>
       </c>
     </row>
     <row r="5">
@@ -659,340 +659,340 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9998787824076882</v>
+        <v>0.9317130140913565</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8279900816566447</v>
+        <v>0.7543620399281805</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8183040990717052</v>
+        <v>0.6994010082648423</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9998299911199031</v>
+        <v>0.9622070244522465</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0005045714641233548</v>
+        <v>0.2842464018909676</v>
       </c>
       <c r="G5" t="n">
-        <v>1.150231115994863</v>
+        <v>1.642582170059062</v>
       </c>
       <c r="H5" t="n">
-        <v>0.649915702286852</v>
+        <v>1.075225163705669</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0006610094147492137</v>
+        <v>0.1854801272988859</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05172678339249035</v>
+        <v>1.403104807571002</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02246266823249978</v>
+        <v>0.5331476361112066</v>
       </c>
       <c r="L5" t="n">
-        <v>1.007757925907953</v>
+        <v>0.9070134659967408</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02281643280273138</v>
+        <v>0.5415441784278486</v>
       </c>
       <c r="N5" t="n">
-        <v>145.1836021496722</v>
+        <v>36.51582760937356</v>
       </c>
       <c r="O5" t="n">
-        <v>286.5187746928886</v>
+        <v>73.48041119759938</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_21_5</t>
+          <t>model_1_21_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9998787204982065</v>
+        <v>0.9317422122385425</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8279554339008683</v>
+        <v>0.7543234324731167</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8179261870507573</v>
+        <v>0.6994820222126843</v>
       </c>
       <c r="E6" t="n">
-        <v>0.999803126837168</v>
+        <v>0.9620850692976692</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0005048291639941154</v>
+        <v>0.2841248638238082</v>
       </c>
       <c r="G6" t="n">
-        <v>1.150462805697278</v>
+        <v>1.642840338288844</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6512674716731852</v>
+        <v>1.074935381511696</v>
       </c>
       <c r="I6" t="n">
-        <v>0.000765460098726621</v>
+        <v>0.1860786580382068</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05739408472478739</v>
+        <v>1.402067154317656</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02246840368148382</v>
+        <v>0.5330336423001912</v>
       </c>
       <c r="L6" t="n">
-        <v>1.007761888114786</v>
+        <v>0.9070532251758876</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02282225857930357</v>
+        <v>0.5414283893282618</v>
       </c>
       <c r="N6" t="n">
-        <v>145.1825809500843</v>
+        <v>36.51668295218445</v>
       </c>
       <c r="O6" t="n">
-        <v>286.5177534933007</v>
+        <v>73.48126654041027</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_21_4</t>
+          <t>model_1_21_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9998778213386379</v>
+        <v>0.9317704017734374</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8279525876618694</v>
+        <v>0.7542870463527247</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8178553791661223</v>
+        <v>0.6995624476135747</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9998078342032102</v>
+        <v>0.9619636683346643</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0005085719397031332</v>
+        <v>0.2840075241322366</v>
       </c>
       <c r="G7" t="n">
-        <v>1.150481838510569</v>
+        <v>1.643083652443448</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6515207473708471</v>
+        <v>1.074647704516044</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0007471574472959878</v>
+        <v>0.1866744689196212</v>
       </c>
       <c r="J7" t="n">
-        <v>0.05724768951351142</v>
+        <v>1.401052102920311</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02255153963043617</v>
+        <v>0.5329235631234902</v>
       </c>
       <c r="L7" t="n">
-        <v>1.007819434327175</v>
+        <v>0.9070916109255318</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02290670383634646</v>
+        <v>0.5413165765145664</v>
       </c>
       <c r="N7" t="n">
-        <v>145.1678077562795</v>
+        <v>36.51750909549701</v>
       </c>
       <c r="O7" t="n">
-        <v>286.502980299496</v>
+        <v>73.48209268372284</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_21_2</t>
+          <t>model_1_21_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9998739843566448</v>
+        <v>0.9317975785697609</v>
       </c>
       <c r="C8" t="n">
-        <v>0.827940695441261</v>
+        <v>0.7542502486979679</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8181314720145352</v>
+        <v>0.6996418305966983</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9998226312360597</v>
+        <v>0.9618426791627226</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0005245434796846816</v>
+        <v>0.283894399992006</v>
       </c>
       <c r="G8" t="n">
-        <v>1.150561361844536</v>
+        <v>1.643329718530245</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6505331792608573</v>
+        <v>1.074363756188301</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0006896252876912862</v>
+        <v>0.1872682588154491</v>
       </c>
       <c r="J8" t="n">
-        <v>0.05331754212303698</v>
+        <v>1.40005092251386</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02290291421816625</v>
+        <v>0.5328174171252343</v>
       </c>
       <c r="L8" t="n">
-        <v>1.008065001174735</v>
+        <v>0.9071286176269084</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02326361222258756</v>
+        <v>0.5412087588229453</v>
       </c>
       <c r="N8" t="n">
-        <v>145.1059644723336</v>
+        <v>36.51830588196258</v>
       </c>
       <c r="O8" t="n">
-        <v>286.44113701555</v>
+        <v>73.4828894701884</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_21_1</t>
+          <t>model_1_21_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9998576146794539</v>
+        <v>0.9319816425953745</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8279401092481858</v>
+        <v>0.753943865089137</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8177021059125429</v>
+        <v>0.7002497461787106</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9998692714941108</v>
+        <v>0.9608912266326859</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0005926826980104587</v>
+        <v>0.2831282285714625</v>
       </c>
       <c r="G9" t="n">
-        <v>1.150565281720329</v>
+        <v>1.645378507133264</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6520689969116071</v>
+        <v>1.072189277400413</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0005082838797575673</v>
+        <v>0.1919377915482468</v>
       </c>
       <c r="J9" t="n">
-        <v>0.05282383039080116</v>
+        <v>1.392354161818004</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02434507543653251</v>
+        <v>0.532097950166567</v>
       </c>
       <c r="L9" t="n">
-        <v>1.009112660514951</v>
+        <v>0.9073792580022121</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02472848603851078</v>
+        <v>0.5404779609788819</v>
       </c>
       <c r="N9" t="n">
-        <v>144.8617027628258</v>
+        <v>36.52371075893389</v>
       </c>
       <c r="O9" t="n">
-        <v>286.1968753060422</v>
+        <v>73.48829434715971</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_21_6</t>
+          <t>model_1_21_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998807056707343</v>
+        <v>0.9320191640034352</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8279278097908338</v>
+        <v>0.753873700972001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8178406135851108</v>
+        <v>0.7003945255601023</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9998046270799866</v>
+        <v>0.9606580638337946</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0004965658303492395</v>
+        <v>0.2829720447087069</v>
       </c>
       <c r="G10" t="n">
-        <v>1.150647528248276</v>
+        <v>1.645847694907628</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6515735629979676</v>
+        <v>1.071671409947966</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0007596270232603924</v>
+        <v>0.1930821064637279</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0576848052153244</v>
+        <v>1.390509915868995</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02228375709680124</v>
+        <v>0.5319511675978416</v>
       </c>
       <c r="L10" t="n">
-        <v>1.007634837073006</v>
+        <v>0.9074303509834012</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02263470399549111</v>
+        <v>0.5403288667314278</v>
       </c>
       <c r="N10" t="n">
-        <v>145.2155889888959</v>
+        <v>36.52481433633238</v>
       </c>
       <c r="O10" t="n">
-        <v>286.5507615321123</v>
+        <v>73.4893979245582</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_21_0</t>
+          <t>model_1_21_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9998515246560732</v>
+        <v>0.932053613933495</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8279031620101786</v>
+        <v>0.7538034272255136</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8175226993690798</v>
+        <v>0.7005368480127414</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9998497880556464</v>
+        <v>0.9604268699168296</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0006180325829169655</v>
+        <v>0.2828286459551296</v>
       </c>
       <c r="G11" t="n">
-        <v>1.15081234807101</v>
+        <v>1.64631761577397</v>
       </c>
       <c r="H11" t="n">
-        <v>0.652710723714985</v>
+        <v>1.071162330787206</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0005840371948155051</v>
+        <v>0.1942167585128957</v>
       </c>
       <c r="J11" t="n">
-        <v>0.05552506796574743</v>
+        <v>1.388699237814226</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02486026111924341</v>
+        <v>0.5318163648808953</v>
       </c>
       <c r="L11" t="n">
-        <v>1.009502422011316</v>
+        <v>0.9074772615264612</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02525178538072763</v>
+        <v>0.540191941006443</v>
       </c>
       <c r="N11" t="n">
-        <v>144.7779387574596</v>
+        <v>36.52582811209486</v>
       </c>
       <c r="O11" t="n">
-        <v>286.113111300676</v>
+        <v>73.49041170032068</v>
       </c>
     </row>
   </sheetData>
